--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElDamarawyZ\Documents\UiPath\Calculate-Client-Security-Hash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/128b02f02265b228/Documents/UiPath/Calculate-Client-Security-Hash/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66B2B8-620E-4341-84E3-263232BBDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{1F66B2B8-620E-4341-84E3-263232BBDE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06D68FB3-349B-441D-9F85-4E41C477DED3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -156,26 +156,35 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
     <t>Calculate Client Hash</t>
   </si>
   <si>
-    <t>ACME-LoginPageUrl</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/login</t>
-  </si>
-  <si>
-    <t>Credential_Name</t>
+    <t>zeyadsamer1806@gmail.com's workspace</t>
+  </si>
+  <si>
+    <t>WorkItemsQueue</t>
+  </si>
+  <si>
+    <t>ACME_LoginCredentials</t>
+  </si>
+  <si>
+    <t>ACME_WebsiteURL</t>
+  </si>
+  <si>
+    <t>SHA1Generator_WebsiteURL</t>
+  </si>
+  <si>
+    <t>RetryInterval</t>
+  </si>
+  <si>
+    <t>WorkItemsBaseURL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -199,12 +208,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,24 +226,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -256,10 +258,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -297,7 +303,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -403,7 +409,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -545,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -553,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -606,46 +612,44 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="29">
+    <row r="5" spans="1:26" ht="28.8">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1636,14 +1640,10 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{CEBD700E-1202-4F61-926F-F5DDF8E87B9D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;7&amp;K000000 C2 General</oddFooter>
   </headerFooter>
@@ -1654,16 +1654,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1700,18 +1700,18 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1836,7 +1836,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.7870370370370373E-5</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2818,16 +2825,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2866,9 +2875,39 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -3864,7 +3903,6 @@
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
     <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
